--- a/Code/Results/Cases/Case_0_146/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_146/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.919730744895209</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>7.321037326077512</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>40.61165968674302</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>44.03557420356767</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.615228908323224</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>58.2766830244941</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4.74985369013265</v>
+      </c>
+      <c r="D3">
+        <v>7.437628684160091</v>
+      </c>
+      <c r="E3">
+        <v>37.97429625746594</v>
+      </c>
+      <c r="F3">
+        <v>43.33800244347709</v>
+      </c>
+      <c r="G3">
+        <v>3.634722879778845</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>54.94409238139954</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4.646181395661392</v>
+      </c>
+      <c r="D4">
+        <v>7.533519579579704</v>
+      </c>
+      <c r="E4">
+        <v>36.26628814160325</v>
+      </c>
+      <c r="F4">
+        <v>43.010146293572</v>
+      </c>
+      <c r="G4">
+        <v>3.647037860171465</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>52.80900744501521</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4.604141028678945</v>
+      </c>
+      <c r="D5">
+        <v>7.578182454313158</v>
+      </c>
+      <c r="E5">
+        <v>35.54785702453522</v>
+      </c>
+      <c r="F5">
+        <v>42.90090430305643</v>
+      </c>
+      <c r="G5">
+        <v>3.652146793109824</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>51.9169467937252</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4.597174230670089</v>
+      </c>
+      <c r="D6">
+        <v>7.585921222351387</v>
+      </c>
+      <c r="E6">
+        <v>35.42720646404673</v>
+      </c>
+      <c r="F6">
+        <v>42.88420702292154</v>
+      </c>
+      <c r="G6">
+        <v>3.653000692248635</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>51.7675051955863</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>4.645613520554965</v>
+      </c>
+      <c r="D7">
+        <v>7.534099975394069</v>
+      </c>
+      <c r="E7">
+        <v>36.25668995982176</v>
+      </c>
+      <c r="F7">
+        <v>43.00857567282201</v>
+      </c>
+      <c r="G7">
+        <v>3.64710639012719</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>52.79706530343813</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4.861053062706223</v>
+      </c>
+      <c r="D8">
+        <v>7.35587204280704</v>
+      </c>
+      <c r="E8">
+        <v>39.7206190352133</v>
+      </c>
+      <c r="F8">
+        <v>43.77370891006805</v>
+      </c>
+      <c r="G8">
+        <v>3.62188092885249</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>57.14621616820293</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>5.286715114219271</v>
+      </c>
+      <c r="D9">
+        <v>7.223330101520451</v>
+      </c>
+      <c r="E9">
+        <v>45.81683981039588</v>
+      </c>
+      <c r="F9">
+        <v>46.10321799888894</v>
+      </c>
+      <c r="G9">
+        <v>3.574980862231198</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>64.96124608622475</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>5.599391219032286</v>
+      </c>
+      <c r="D10">
+        <v>7.29069960195062</v>
+      </c>
+      <c r="E10">
+        <v>49.88313638031364</v>
+      </c>
+      <c r="F10">
+        <v>48.35304810608829</v>
+      </c>
+      <c r="G10">
+        <v>3.541820875269162</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>70.26487032008936</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5.741345787113282</v>
+      </c>
+      <c r="D11">
+        <v>7.363482218076753</v>
+      </c>
+      <c r="E11">
+        <v>51.64665759637208</v>
+      </c>
+      <c r="F11">
+        <v>49.49790792663465</v>
+      </c>
+      <c r="G11">
+        <v>3.526950745062771</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>72.583970924892</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>5.795046778248778</v>
+      </c>
+      <c r="D12">
+        <v>7.397548936791659</v>
+      </c>
+      <c r="E12">
+        <v>52.30236067458753</v>
+      </c>
+      <c r="F12">
+        <v>49.94914359223218</v>
+      </c>
+      <c r="G12">
+        <v>3.521344473158063</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>73.4489386633262</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>5.783483837345933</v>
+      </c>
+      <c r="D13">
+        <v>7.389916405397699</v>
+      </c>
+      <c r="E13">
+        <v>52.16167647574398</v>
+      </c>
+      <c r="F13">
+        <v>49.85117107624199</v>
+      </c>
+      <c r="G13">
+        <v>3.522550889158316</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>73.26323605299037</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>5.74576493073891</v>
+      </c>
+      <c r="D14">
+        <v>7.366152232261775</v>
+      </c>
+      <c r="E14">
+        <v>51.70084342813042</v>
+      </c>
+      <c r="F14">
+        <v>49.53467530503588</v>
+      </c>
+      <c r="G14">
+        <v>3.526489055635746</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>72.65539579050908</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>5.722653712188675</v>
+      </c>
+      <c r="D15">
+        <v>7.352455199379805</v>
+      </c>
+      <c r="E15">
+        <v>51.41700304889569</v>
+      </c>
+      <c r="F15">
+        <v>49.34312446492499</v>
+      </c>
+      <c r="G15">
+        <v>3.52890432308187</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>72.28136195426859</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>5.590107115038336</v>
+      </c>
+      <c r="D16">
+        <v>7.286830767233051</v>
+      </c>
+      <c r="E16">
+        <v>49.76617522623729</v>
+      </c>
+      <c r="F16">
+        <v>48.28069363577593</v>
+      </c>
+      <c r="G16">
+        <v>3.542796481112022</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>70.11144663528896</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>5.508709306816393</v>
+      </c>
+      <c r="D17">
+        <v>7.25770421684753</v>
+      </c>
+      <c r="E17">
+        <v>48.73155558778181</v>
+      </c>
+      <c r="F17">
+        <v>47.66020985151075</v>
+      </c>
+      <c r="G17">
+        <v>3.55136965620929</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>68.75644813315051</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>5.461865053505361</v>
+      </c>
+      <c r="D18">
+        <v>7.244894727685241</v>
+      </c>
+      <c r="E18">
+        <v>48.12833078490855</v>
+      </c>
+      <c r="F18">
+        <v>47.31474055766717</v>
+      </c>
+      <c r="G18">
+        <v>3.556321313714624</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>67.96826485238304</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>5.446000408077681</v>
+      </c>
+      <c r="D19">
+        <v>7.241220158269607</v>
+      </c>
+      <c r="E19">
+        <v>47.92268278832646</v>
+      </c>
+      <c r="F19">
+        <v>47.19972317992616</v>
+      </c>
+      <c r="G19">
+        <v>3.558001573046752</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>67.69987854113231</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>5.517377097329561</v>
+      </c>
+      <c r="D20">
+        <v>7.26039320327655</v>
+      </c>
+      <c r="E20">
+        <v>48.84253290390267</v>
+      </c>
+      <c r="F20">
+        <v>47.72507793232147</v>
+      </c>
+      <c r="G20">
+        <v>3.550454937987154</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>68.9016019223313</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>5.756845420799951</v>
+      </c>
+      <c r="D21">
+        <v>7.372952595843222</v>
+      </c>
+      <c r="E21">
+        <v>51.83652720712539</v>
+      </c>
+      <c r="F21">
+        <v>49.62715558178271</v>
+      </c>
+      <c r="G21">
+        <v>3.525331701779646</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>72.83428990573998</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>5.9130363460812</v>
+      </c>
+      <c r="D22">
+        <v>7.484588639711818</v>
+      </c>
+      <c r="E22">
+        <v>53.72288780680461</v>
+      </c>
+      <c r="F22">
+        <v>50.97355245447089</v>
+      </c>
+      <c r="G22">
+        <v>3.509052986531165</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>75.32760822134583</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>5.829705341385876</v>
+      </c>
+      <c r="D23">
+        <v>7.421394801530136</v>
+      </c>
+      <c r="E23">
+        <v>52.72243396544541</v>
+      </c>
+      <c r="F23">
+        <v>50.2454313105286</v>
+      </c>
+      <c r="G23">
+        <v>3.517730563340712</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>74.00381819967274</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>5.513458536277837</v>
+      </c>
+      <c r="D24">
+        <v>7.259165288374443</v>
+      </c>
+      <c r="E24">
+        <v>48.79238627112807</v>
+      </c>
+      <c r="F24">
+        <v>47.69571603446511</v>
+      </c>
+      <c r="G24">
+        <v>3.550868410546322</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>68.83600649334188</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>5.171452764272861</v>
+      </c>
+      <c r="D25">
+        <v>7.232547603516074</v>
+      </c>
+      <c r="E25">
+        <v>44.24109833517149</v>
+      </c>
+      <c r="F25">
+        <v>45.38033273668264</v>
+      </c>
+      <c r="G25">
+        <v>3.587419897531838</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>62.92418503664544</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
